--- a/docs/SCRUM evidence/DailyScrum_Evidence.xlsx
+++ b/docs/SCRUM evidence/DailyScrum_Evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://espolec.sharepoint.com/sites/Section_15508-T01/Documentos compartidos/T01/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="11_76D19ACF77731B351A7E97590188B34C3373F51F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9934A8C-42B9-41F2-B22E-028C8FBAB603}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="11_76D19ACF77731B351A7E97590188B34C3373F51F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021F7DFE-E8B5-45FF-99F4-A484904F191D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="08-junio" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="14-junio" sheetId="5" r:id="rId3"/>
     <sheet name="21-junio" sheetId="6" r:id="rId4"/>
     <sheet name="25-junio" sheetId="8" r:id="rId5"/>
+    <sheet name="12-julio" sheetId="9" r:id="rId6"/>
+    <sheet name="27-julio" sheetId="10" r:id="rId7"/>
+    <sheet name="4-agosto" sheetId="11" r:id="rId8"/>
+    <sheet name="12-agosto" sheetId="12" r:id="rId9"/>
+    <sheet name="22-agosto" sheetId="13" r:id="rId10"/>
+    <sheet name="25-agosto" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Sprint Planning and Task Division between Team Members</t>
   </si>
@@ -202,13 +208,150 @@
   </si>
   <si>
     <t>Learn how to use black and flake8 in the backend for code analysis. Edit the code.</t>
+  </si>
+  <si>
+    <t>Client Feedback review and Fixes of Calendar Module</t>
+  </si>
+  <si>
+    <t>Changing pieces number input by range selector
+Fix pieces number function test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add client name and invoice number in calendar view
+Add time duration of task in calendar view								</t>
+  </si>
+  <si>
+    <t>Start working on mobile application</t>
+  </si>
+  <si>
+    <t>Add new endpoint to get machines by branch office</t>
+  </si>
+  <si>
+    <t>Add new endpoint to get pieces number ranges</t>
+  </si>
+  <si>
+    <t>Add new endpoint to get role user</t>
+  </si>
+  <si>
+    <t>Finishing Calendar Module fixes and improvements</t>
+  </si>
+  <si>
+    <t>Replace workflows by machine selector in create order page</t>
+  </si>
+  <si>
+    <t>Add services selector to calendar view</t>
+  </si>
+  <si>
+    <t>Allow update end date when is a cut task</t>
+  </si>
+  <si>
+    <t>Change the databse to mysql</t>
+  </si>
+  <si>
+    <t>Change all date to mysql format</t>
+  </si>
+  <si>
+    <t>Add new endpoint to update events with security</t>
+  </si>
+  <si>
+    <t>Report Module prototyping, validation and start of development</t>
+  </si>
+  <si>
+    <t>Protipying report pages
+Adding report page header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protipying report pages
+Adding filter to page reports									</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protipying report pages
+Adding table compoent to report page 										</t>
+  </si>
+  <si>
+    <t>Creating report endpoint by branches,</t>
+  </si>
+  <si>
+    <t>Creating report endpoint for all branches</t>
+  </si>
+  <si>
+    <t>Creating admin view with django</t>
+  </si>
+  <si>
+    <t>Finishing Report and Administration modules. Backend endpoints for mobile application.</t>
+  </si>
+  <si>
+    <t>Adding slideOver component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Header componets to all pages							</t>
+  </si>
+  <si>
+    <t>Manage when machine change its state in mobile app</t>
+  </si>
+  <si>
+    <t>Adding backend endpoints to mobile app</t>
+  </si>
+  <si>
+    <t>Fixing file upload when create order</t>
+  </si>
+  <si>
+    <t>Working on login/logoaut functions</t>
+  </si>
+  <si>
+    <t>Mobile application development. Peer to peer code review and Refactoring.</t>
+  </si>
+  <si>
+    <t>Review Domenica's Code
+Implementing CI pipelines</t>
+  </si>
+  <si>
+    <t>Review Camilo's Code
+Fix react Router</t>
+  </si>
+  <si>
+    <t>Review Sebastian's Code
+Working on acceptance testing</t>
+  </si>
+  <si>
+    <t>Review David's Code
+Working on acceptance testing</t>
+  </si>
+  <si>
+    <t>Review Nicole's Code
+Add backend env variables</t>
+  </si>
+  <si>
+    <t>Review Nicole's Code
+Mange roles in backend</t>
+  </si>
+  <si>
+    <t>Task distribution to complete the Final Project Report</t>
+  </si>
+  <si>
+    <t>Explain the CI pipeline in the document</t>
+  </si>
+  <si>
+    <t>Writting scrum section in the documment</t>
+  </si>
+  <si>
+    <t>Explain architectural decisions</t>
+  </si>
+  <si>
+    <t>Add acceptance test in the document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write video script </t>
+  </si>
+  <si>
+    <t>Writting about the backend and frontend tools and coding standarts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,17 +915,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8830AB9-11A6-4975-AFB4-CC2A88F37AF2}">
   <dimension ref="A2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="14" width="7.44140625" customWidth="1"/>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="14" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.45" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -806,7 +949,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.45" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -828,7 +971,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -858,7 +1001,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -880,7 +1023,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="45.6" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -911,7 +1054,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="45.6" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -938,7 +1081,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="45.6" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -964,7 +1107,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="45.6" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1137,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="45.6" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1165,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="45.6" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1052,6 +1195,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="R6:T11"/>
     <mergeCell ref="A2:T3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:N10"/>
@@ -1064,14 +1215,488 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD24800-69CD-44CF-A1F0-DF895D54E299}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:N8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:N9"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="R6:T11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51979D54-E65E-463A-80A6-30308D8108EB}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1085,12 +1710,12 @@
       <selection activeCell="T9" sqref="T9:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="6.88671875" customWidth="1"/>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.45" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
@@ -1112,7 +1737,7 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1132,7 +1757,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1783,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1178,7 +1803,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="31.15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1829,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="31.15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1857,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="31.15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1888,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="31.15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1922,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="31.15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1949,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31.15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1382,12 +2007,12 @@
       <selection activeCell="P6" sqref="P6:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="6.88671875" customWidth="1"/>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +2030,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1421,7 +2046,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +2066,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1457,7 +2082,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="45.6" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +2105,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="45.6" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +2128,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="42" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +2151,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="42" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +2174,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="42" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1572,7 +2197,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="42" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1625,12 +2250,12 @@
       <selection activeCell="P6" sqref="P6:R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="6.88671875" customWidth="1"/>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +2273,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1664,7 +2289,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +2309,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1700,7 +2325,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="45.6" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +2348,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="45.6" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +2371,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="39.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +2394,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="39.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +2417,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="39.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +2440,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="39.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1859,18 +2484,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F602706-0210-4AFA-B4E2-66653054A190}">
-  <dimension ref="A2:S11"/>
+  <dimension ref="A2:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:S10"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="6.88671875" customWidth="1"/>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
@@ -1888,7 +2513,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1904,7 +2529,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +2549,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1940,7 +2565,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +2588,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +2611,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2634,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2658,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2056,7 +2681,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -2076,6 +2701,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="23"/>
     </row>
+    <row r="30" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A9:C9"/>
@@ -2099,7 +2725,980 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC8133-401D-4A7F-8F2A-9A73852BC712}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B547C-3DB4-4558-ADAE-55D17C36EF3D}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5AE9C5-C88B-4311-A7E3-A46F1BAFD914}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y49" sqref="Y49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F1A462-3490-498D-949B-E49164D02DDB}">
+  <dimension ref="A2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="A2:N3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010092198680CE71CD448F1A88C40F929092" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fb5fdf1eeda5da4d165803243dfa4aac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94d4b40b-bb19-49b6-a6bb-98ae163a8ec7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b77b15a6b73512a0e42d2d87928db36" ns2:_="">
     <xsd:import namespace="94d4b40b-bb19-49b6-a6bb-98ae163a8ec7"/>
@@ -2285,7 +3884,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="94d4b40b-bb19-49b6-a6bb-98ae163a8ec7">
@@ -2295,53 +3894,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5DFAAD-E6FB-4E3E-918B-2ADDD76BDE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="94d4b40b-bb19-49b6-a6bb-98ae163a8ec7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CEDDB61-6CB2-4D93-8A11-07BAD4AF772A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B41CCA6-8131-4712-AAF8-961656A8B757}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="94d4b40b-bb19-49b6-a6bb-98ae163a8ec7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5DFAAD-E6FB-4E3E-918B-2ADDD76BDE1D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CEDDB61-6CB2-4D93-8A11-07BAD4AF772A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B41CCA6-8131-4712-AAF8-961656A8B757}"/>
 </file>